--- a/xlsx/本田_intext.xlsx
+++ b/xlsx/本田_intext.xlsx
@@ -29,7 +29,7 @@
     <t>本田技研工业</t>
   </si>
   <si>
-    <t>政策_政策_混合動力車輛_本田</t>
+    <t>政策_政策_混合动力车辆_本田</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
@@ -41,7 +41,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>汽車</t>
+    <t>汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%8F%B8</t>
@@ -83,7 +83,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%98%AA%E5%BA%9C</t>
   </si>
   <si>
-    <t>大阪府</t>
+    <t>大坂府</t>
   </si>
 </sst>
 </file>
